--- a/public/templates/HEXIN_INDEX_TEMPLATE.xlsx
+++ b/public/templates/HEXIN_INDEX_TEMPLATE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="570" windowWidth="27735" windowHeight="11700"/>
@@ -14,20 +14,152 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>GOURUI</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>GOURUI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+索引名称，不能与主键的名字相同，名称中建议包含表名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>GOURUI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于索引的字段，用逗号分隔。
+1.务必填入老核心的字段名称，如果是新字段，则参考表结构填报模板中的Column_name字段,比如LNCBA表中UUID对应的老核心字段就是CBUUID，这个字段不用真实存在于老核心系统。
+2.不能与主键的定义重复</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>GOURUI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>提交人工号或姓名，线下提交时为必填项，在线提交可以不填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>GOURUI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">是否唯一索引，1为唯一索引，其他则不是
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>GOURUI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是否删除，1为删除，其他则为保留</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>select TABLE_NAME TABLE_NAME, PK_COLUMNS PK_COLUMNS, COMMITTER COMMITTER from (select * from "NCBSTRANSFORM"."HEXIN_PK_TEMPLATE")</t>
   </si>
   <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交人工号或姓名(必填项)，否则导入请求不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,53 +172,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否唯一索引，1为唯一索引，其他则不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PMSBA_UNIQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">用于索引的字段，用逗号分隔。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.务必填入老核心的字段名称，如果是新字段，则参考表结构填报模板中的Column_name字段,比如LNCBA表中UUID对应的老核心字段就是CBUUID，这个字段不用真实存在。
-2.不能与主键的定义重复</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除，1为删除，其他则为保留</t>
+    <t>INDEX_COLUMNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMITTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -102,12 +220,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,11 +270,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -223,6 +353,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -257,6 +388,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,7 +564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -440,10 +572,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -453,52 +585,52 @@
     <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="67.5">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -511,18 +643,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
